--- a/biology/Botanique/Pavot_polaire/Pavot_polaire.xlsx
+++ b/biology/Botanique/Pavot_polaire/Pavot_polaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Papaver dahlianum, ou pavot du Spitzberg, ou encore pavot polaire, est une espèce de pavot de la famille des Papaveraceae, originaire de l'archipel du Svalbard dont il est l'emblème, ainsi que du nord-est du Groenland, de l'archipel François-Joseph et d'une petite partie du nord de la Norvège et de Nouvelle-Zemble.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante herbacée peut atteindre 10 à 25 cm de hauteur. Elle possède des feuilles basales à longs pétioles formant des rosettes. Les feuilles sont pennées et duveteuses. Les tiges sont duveteuses, minces et légèrement arquées. La fleur mesure de 2 à 4 cm de diamètre avec quatre pétales blancs ou jaunes ondulés et deux tépales couverts de poils denses brun foncé. Son fruit est en forme de capsule ovoïde duveteuse contenant de nombreuses graines. 2n=70.
 </t>
@@ -542,10 +556,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Synonyme
-Papaver radicatum Rottb. subsp. dahlianum (Nordh.) Rändel[2]
+Papaver radicatum Rottb. subsp. dahlianum (Nordh.) Rändel
 Sous-espèces
 Papaver dahlianum subsp. dahlianum
 Papaver dahlianum susp. polare (Tolm.) R.Elven &amp; Ö.Nilsson (péninsule de Taïmyr, nord-est du Groenland, péninsule de Varanger, Spitzberg, île aux Ours)</t>
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Papaver dahlianum pousse sur des sols pierreux, ou au bord des chemins des régions arctiques de Norvège, de l'archipel François-Joseph et du Groenland, etc. Comme l'espèce Papaver radicatum, c'est l'espèce de pavot qui pousse le plus au nord du globe terrestre.
 </t>
@@ -608,6 +626,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
